--- a/data/trans_orig/P74A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74A-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>3675</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9162</v>
+        <v>8361</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004973336919225867</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001263709113137416</v>
+        <v>0.001269114883922303</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01239951463345913</v>
+        <v>0.01131491708007059</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -764,19 +764,19 @@
         <v>5898</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2251</v>
+        <v>1995</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13319</v>
+        <v>12651</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007177009567805871</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002738839647566607</v>
+        <v>0.002428078723913144</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01620699629130758</v>
+        <v>0.01539431808579927</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -785,19 +785,19 @@
         <v>9573</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4219</v>
+        <v>4085</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18017</v>
+        <v>18225</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006133690028104358</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002702998991946463</v>
+        <v>0.002617691076121227</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01154395305373455</v>
+        <v>0.01167759949600269</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>7132</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3352</v>
+        <v>3390</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13289</v>
+        <v>13437</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009652024199366324</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004535799363670986</v>
+        <v>0.00458718987151875</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01798429096100058</v>
+        <v>0.01818430910782431</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -835,19 +835,19 @@
         <v>12100</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6364</v>
+        <v>6071</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20579</v>
+        <v>20480</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01472431112051273</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00774396913902676</v>
+        <v>0.007387526462402752</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02504102910039998</v>
+        <v>0.02492061158605665</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -856,19 +856,19 @@
         <v>19232</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12055</v>
+        <v>12107</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29467</v>
+        <v>28900</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01232285822812668</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007724001804133096</v>
+        <v>0.007757289213594055</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01888078416620509</v>
+        <v>0.01851713131455401</v>
       </c>
     </row>
     <row r="6">
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6342</v>
+        <v>6417</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00265523127050243</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.008582781226056005</v>
+        <v>0.008683985783063604</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6197</v>
+        <v>7543</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001257108068535836</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.003970463124229376</v>
+        <v>0.004833092044940227</v>
       </c>
     </row>
     <row r="7">
@@ -948,19 +948,19 @@
         <v>521598</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>494834</v>
+        <v>496507</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>544942</v>
+        <v>546034</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7059022898161311</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6696815510885117</v>
+        <v>0.6719456101125196</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7374939265858228</v>
+        <v>0.7389720120954405</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10440</v>
+        <v>9728</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003434901465086751</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01270360700113898</v>
+        <v>0.01183723530593019</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>535</v>
@@ -990,19 +990,19 @@
         <v>524421</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>490888</v>
+        <v>487639</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>561938</v>
+        <v>561046</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3360151296319148</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3145290608575862</v>
+        <v>0.3124472010119723</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3600534039412929</v>
+        <v>0.3594818501390284</v>
       </c>
     </row>
     <row r="8">
@@ -1019,19 +1019,19 @@
         <v>65120</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51642</v>
+        <v>51000</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>81931</v>
+        <v>80594</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08812976638318952</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06988919372128902</v>
+        <v>0.06902039190948654</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1108815424972801</v>
+        <v>0.1090713690266744</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>417</v>
@@ -1040,19 +1040,19 @@
         <v>414437</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>385561</v>
+        <v>385470</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>442627</v>
+        <v>442378</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5043056532135115</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4691684018031532</v>
+        <v>0.4690579723537168</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5386089056944794</v>
+        <v>0.5383053813803808</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>486</v>
@@ -1061,19 +1061,19 @@
         <v>479557</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>441642</v>
+        <v>447806</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>514776</v>
+        <v>514469</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3072689313744161</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2829756224424449</v>
+        <v>0.2869249637242233</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3298352575692352</v>
+        <v>0.3296385615993623</v>
       </c>
     </row>
     <row r="9">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5979</v>
+        <v>5575</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001289773727413894</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.007275915537043513</v>
+        <v>0.006784224351740199</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5715</v>
+        <v>5742</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0006791357851261985</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003662115338072488</v>
+        <v>0.003679240059972357</v>
       </c>
     </row>
     <row r="10">
@@ -1153,19 +1153,19 @@
         <v>13810</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7793</v>
+        <v>8184</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21895</v>
+        <v>23390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01868991188757292</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01054628571396276</v>
+        <v>0.0110755134185283</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02963160155571028</v>
+        <v>0.03165532524396883</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1174,19 +1174,19 @@
         <v>22442</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14755</v>
+        <v>14602</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32989</v>
+        <v>34087</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02730805477983879</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01795501433133002</v>
+        <v>0.01776860041989694</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04014278864109923</v>
+        <v>0.04147838846805194</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1195,19 +1195,19 @@
         <v>36252</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25645</v>
+        <v>25757</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49126</v>
+        <v>49586</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02322783130325546</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01643195296359845</v>
+        <v>0.01650328415206856</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03147678852301313</v>
+        <v>0.0317714928234336</v>
       </c>
     </row>
     <row r="11">
@@ -1224,19 +1224,19 @@
         <v>125613</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>105752</v>
+        <v>107091</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>146911</v>
+        <v>149172</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1699974395240118</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1431182824773804</v>
+        <v>0.1449310355510085</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.19882094596794</v>
+        <v>0.2018810716953697</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>355</v>
@@ -1245,19 +1245,19 @@
         <v>363037</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>335029</v>
+        <v>335336</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>392008</v>
+        <v>389593</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4417602961258305</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4076790950282515</v>
+        <v>0.4080517289193178</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4770130936411976</v>
+        <v>0.4740750459751211</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>475</v>
@@ -1266,19 +1266,19 @@
         <v>488650</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>452098</v>
+        <v>454961</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>528161</v>
+        <v>528772</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3130953155805206</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.289674905751078</v>
+        <v>0.2915096443115832</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3384114123974299</v>
+        <v>0.3388029945111533</v>
       </c>
     </row>
     <row r="12">
@@ -1370,19 +1370,19 @@
         <v>3870</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10766</v>
+        <v>12408</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003730039052579065</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0009387472096474322</v>
+        <v>0.0009358365496526148</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01037740322631003</v>
+        <v>0.0119601152377951</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1391,19 +1391,19 @@
         <v>5772</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11916</v>
+        <v>11830</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005756216330790646</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00200344865660164</v>
+        <v>0.00199790629307722</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01188367610937666</v>
+        <v>0.01179735535538365</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1412,19 +1412,19 @@
         <v>9642</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4583</v>
+        <v>4334</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17876</v>
+        <v>18296</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004725870941649426</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002246520757197967</v>
+        <v>0.00212446848755734</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.008762061135933884</v>
+        <v>0.008967836577422896</v>
       </c>
     </row>
     <row r="14">
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8220</v>
+        <v>7222</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00149892472033459</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007923080774315361</v>
+        <v>0.006960742954160605</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1462,19 +1462,19 @@
         <v>7196</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3071</v>
+        <v>3055</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14731</v>
+        <v>14151</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007176221527142957</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003062861484553822</v>
+        <v>0.003046269696085049</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01469134283643815</v>
+        <v>0.01411270461839881</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1483,19 +1483,19 @@
         <v>8751</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4173</v>
+        <v>4008</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17500</v>
+        <v>18377</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004289220152394376</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002045380154668408</v>
+        <v>0.00196449931829238</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008577677094114375</v>
+        <v>0.00900742046138535</v>
       </c>
     </row>
     <row r="15">
@@ -1512,19 +1512,19 @@
         <v>9705</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3832</v>
+        <v>4149</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19549</v>
+        <v>20325</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.009354469357351318</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003693842166415982</v>
+        <v>0.003998650621180688</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01884243987175177</v>
+        <v>0.01959084157062518</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1546,19 +1546,19 @@
         <v>9705</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4185</v>
+        <v>3729</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>19221</v>
+        <v>20685</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.004756905762321597</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.002051025769041138</v>
+        <v>0.00182776344372741</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.009421054457510739</v>
+        <v>0.0101384955597043</v>
       </c>
     </row>
     <row r="16">
@@ -1575,19 +1575,19 @@
         <v>571086</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>536348</v>
+        <v>537097</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>603072</v>
+        <v>604591</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5504555778734813</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5169725467521696</v>
+        <v>0.5176942117857704</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5812856324134877</v>
+        <v>0.5827499939727595</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6504</v>
+        <v>6392</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001858913319191891</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.006486430605804352</v>
+        <v>0.006374135873990584</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>562</v>
@@ -1617,19 +1617,19 @@
         <v>572950</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>534013</v>
+        <v>535404</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>615235</v>
+        <v>614175</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2808295887384133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2617448530645997</v>
+        <v>0.2624264261270321</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3015552741897166</v>
+        <v>0.3010359323495134</v>
       </c>
     </row>
     <row r="17">
@@ -1646,19 +1646,19 @@
         <v>13929</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7368</v>
+        <v>7377</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23920</v>
+        <v>24106</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01342571594613988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007101558878972096</v>
+        <v>0.007110748652203687</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02305543246924453</v>
+        <v>0.02323481275375217</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>84</v>
@@ -1667,19 +1667,19 @@
         <v>87487</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>71270</v>
+        <v>68290</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>108425</v>
+        <v>106554</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08724929192702721</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07107580751367852</v>
+        <v>0.06810416464181951</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1081301510482742</v>
+        <v>0.1062641480530276</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>97</v>
@@ -1688,19 +1688,19 @@
         <v>101416</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>84086</v>
+        <v>82979</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>123241</v>
+        <v>123155</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04970875589408839</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04121461199022716</v>
+        <v>0.04067172533574576</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06040598283683401</v>
+        <v>0.06036412373745185</v>
       </c>
     </row>
     <row r="18">
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9199</v>
+        <v>9796</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.001760120597652642</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.00886709696647117</v>
+        <v>0.009441748675342546</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>11537</v>
+        <v>10958</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0008950510706173814</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.005654864514579406</v>
+        <v>0.005371044599801426</v>
       </c>
     </row>
     <row r="19">
@@ -1780,19 +1780,19 @@
         <v>58887</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44199</v>
+        <v>45023</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>76709</v>
+        <v>75581</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05676004980397247</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04260274567732183</v>
+        <v>0.04339664513511374</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07393749607918054</v>
+        <v>0.07285065513528285</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -1801,19 +1801,19 @@
         <v>38074</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26591</v>
+        <v>27383</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50702</v>
+        <v>50918</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03797051298033476</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02651898523303045</v>
+        <v>0.02730834907451568</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05056461231250172</v>
+        <v>0.05077908801184238</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>94</v>
@@ -1822,19 +1822,19 @@
         <v>96961</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>77732</v>
+        <v>78783</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116019</v>
+        <v>119217</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0475253100055103</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03810025465683963</v>
+        <v>0.03861520727628846</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05686638031642104</v>
+        <v>0.0584336360121059</v>
       </c>
     </row>
     <row r="20">
@@ -1851,19 +1851,19 @@
         <v>376621</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>346859</v>
+        <v>345935</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>408243</v>
+        <v>411042</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3630151026484887</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3343288969138399</v>
+        <v>0.3334376402905601</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3934948021468119</v>
+        <v>0.3961930632332146</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>832</v>
@@ -1872,19 +1872,19 @@
         <v>862333</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>842438</v>
+        <v>838397</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>885570</v>
+        <v>884454</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8599888439155126</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8401473592280269</v>
+        <v>0.8361179694206162</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8831628443302498</v>
+        <v>0.8820496891752841</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1190</v>
@@ -1893,19 +1893,19 @@
         <v>1238954</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1190643</v>
+        <v>1194348</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1284902</v>
+        <v>1283333</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6072692974350051</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5835899828334891</v>
+        <v>0.5854060473561522</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6297908159707906</v>
+        <v>0.629021675132571</v>
       </c>
     </row>
     <row r="21">
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6760</v>
+        <v>5700</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005148731426805016</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01859938867417137</v>
+        <v>0.01568241104372661</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6578</v>
+        <v>6511</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002875359554624788</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0101069539533186</v>
+        <v>0.01000489099149293</v>
       </c>
     </row>
     <row r="23">
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4996</v>
+        <v>4924</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.003394874757844101</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01738596897521648</v>
+        <v>0.01713654055082577</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4932</v>
+        <v>4898</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.001498973658613737</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.007577983357100508</v>
+        <v>0.007526055567087132</v>
       </c>
     </row>
     <row r="24">
@@ -2123,19 +2123,19 @@
         <v>4518</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>930</v>
+        <v>1777</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11567</v>
+        <v>11894</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01243168927377902</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002558575043499583</v>
+        <v>0.004890058031685514</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03182615479432606</v>
+        <v>0.03272745054732732</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2157,19 +2157,19 @@
         <v>4518</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1741</v>
+        <v>918</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11636</v>
+        <v>11626</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.006942598782175843</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002675124868752089</v>
+        <v>0.00141040252341257</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0178796906503604</v>
+        <v>0.01786388295843538</v>
       </c>
     </row>
     <row r="25">
@@ -2186,19 +2186,19 @@
         <v>128522</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>110511</v>
+        <v>109553</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>147958</v>
+        <v>146172</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3536266599181407</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3040674890896392</v>
+        <v>0.3014338234334019</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4071033111709104</v>
+        <v>0.4021889735149045</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2220,19 +2220,19 @@
         <v>128522</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>108375</v>
+        <v>107921</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>150336</v>
+        <v>150893</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1974862759537338</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1665273781638112</v>
+        <v>0.1658305788703549</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2310050622733384</v>
+        <v>0.2318612064190819</v>
       </c>
     </row>
     <row r="26">
@@ -2249,19 +2249,19 @@
         <v>13684</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6709</v>
+        <v>7021</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23967</v>
+        <v>23693</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0376515476774705</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01845833995991815</v>
+        <v>0.01931745763391704</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0659433148174315</v>
+        <v>0.06518971875959495</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2270,19 +2270,19 @@
         <v>14781</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7945</v>
+        <v>8708</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23349</v>
+        <v>23764</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05143909738897592</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02764799836487214</v>
+        <v>0.03030301641630184</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08125569477691837</v>
+        <v>0.08269888011766871</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>25</v>
@@ -2291,19 +2291,19 @@
         <v>28465</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19628</v>
+        <v>18838</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41049</v>
+        <v>41181</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04373930504955649</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03016089366990387</v>
+        <v>0.02894640927398498</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06307538981782494</v>
+        <v>0.06327762629310403</v>
       </c>
     </row>
     <row r="27">
@@ -2367,19 +2367,19 @@
         <v>8789</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4044</v>
+        <v>3845</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17394</v>
+        <v>16822</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02418243435017728</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01112830178983361</v>
+        <v>0.01057958938180679</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0478592276109322</v>
+        <v>0.04628510624516907</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2388,19 +2388,19 @@
         <v>2966</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7959</v>
+        <v>7855</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01032311626080759</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003375550712744556</v>
+        <v>0.003339738169371183</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02769707848764155</v>
+        <v>0.02733496309614392</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -2409,19 +2409,19 @@
         <v>11755</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5834</v>
+        <v>6126</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20943</v>
+        <v>21327</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01806298835461809</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008964574222164593</v>
+        <v>0.00941293394687498</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03218133748222635</v>
+        <v>0.03277039385555545</v>
       </c>
     </row>
     <row r="29">
@@ -2438,19 +2438,19 @@
         <v>206056</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>186216</v>
+        <v>186074</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>224706</v>
+        <v>225334</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5669589373536275</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5123688971871373</v>
+        <v>0.5119785509713264</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6182749650294121</v>
+        <v>0.620002770318173</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>250</v>
@@ -2459,19 +2459,19 @@
         <v>268627</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>259596</v>
+        <v>259157</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>276189</v>
+        <v>275838</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9348429115923724</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9034138360191378</v>
+        <v>0.9018860285064982</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9611601959046383</v>
+        <v>0.9599388198751155</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>446</v>
@@ -2480,19 +2480,19 @@
         <v>474683</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>451479</v>
+        <v>447603</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>497765</v>
+        <v>495626</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7293944986466773</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6937390537319054</v>
+        <v>0.6877827083482123</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7648612487284931</v>
+        <v>0.7615754997583478</v>
       </c>
     </row>
     <row r="30">
@@ -2584,19 +2584,19 @@
         <v>9416</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4669</v>
+        <v>3922</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>17627</v>
+        <v>17390</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.00440032413852534</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.002182157239621809</v>
+        <v>0.001832688631766641</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.00823736041308961</v>
+        <v>0.008126634023887086</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -2605,19 +2605,19 @@
         <v>11670</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5782</v>
+        <v>6442</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>20895</v>
+        <v>20313</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.005525876946830347</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002738010897781049</v>
+        <v>0.003050317180785485</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.009894187377687581</v>
+        <v>0.009618415264343703</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>20</v>
@@ -2626,19 +2626,19 @@
         <v>21086</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>13508</v>
+        <v>13245</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>32987</v>
+        <v>32564</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00495940014815589</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.003176991687258756</v>
+        <v>0.003115121731830152</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.007758458616626425</v>
+        <v>0.007659022973183586</v>
       </c>
     </row>
     <row r="32">
@@ -2655,19 +2655,19 @@
         <v>8687</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4229</v>
+        <v>4269</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17210</v>
+        <v>17378</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004059707050957646</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00197652658440224</v>
+        <v>0.001995242819820804</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008042523240578693</v>
+        <v>0.00812119647749353</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -2676,19 +2676,19 @@
         <v>20272</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>12843</v>
+        <v>12712</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>31836</v>
+        <v>30876</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.009598916062210364</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006081279041168122</v>
+        <v>0.00601910635823417</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01507471624087018</v>
+        <v>0.0146201252296584</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>29</v>
@@ -2697,19 +2697,19 @@
         <v>28959</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>19105</v>
+        <v>19838</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>40998</v>
+        <v>39227</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.006811100719624638</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004493507179108213</v>
+        <v>0.004665913367822144</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.009642676966820564</v>
+        <v>0.009226187151745427</v>
       </c>
     </row>
     <row r="33">
@@ -2726,19 +2726,19 @@
         <v>16185</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>9025</v>
+        <v>9114</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>27708</v>
+        <v>27885</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.00756379019022654</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.004217500453661903</v>
+        <v>0.004259292005507753</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0129485830898297</v>
+        <v>0.0130312731793054</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>16185</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>9054</v>
+        <v>8647</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>27576</v>
+        <v>27417</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.003806761993919445</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.002129596307155088</v>
+        <v>0.002033824938618138</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.006485916860925593</v>
+        <v>0.006448546924600469</v>
       </c>
     </row>
     <row r="34">
@@ -2789,19 +2789,19 @@
         <v>1221206</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1174623</v>
+        <v>1172779</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1265965</v>
+        <v>1271645</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5707027636504898</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5489333041492231</v>
+        <v>0.5480712268112866</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.591619702091337</v>
+        <v>0.5942743338128593</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -2810,19 +2810,19 @@
         <v>4687</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1802</v>
+        <v>988</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14032</v>
+        <v>12668</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002219248609838984</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0008530458406448177</v>
+        <v>0.0004680496593621847</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.006644189242372621</v>
+        <v>0.005998394603768226</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1220</v>
@@ -2831,19 +2831,19 @@
         <v>1225893</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1169027</v>
+        <v>1163591</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1283123</v>
+        <v>1283176</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2883299662263554</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2749551265470488</v>
+        <v>0.2736765767164526</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3017904648545011</v>
+        <v>0.3018028475381591</v>
       </c>
     </row>
     <row r="35">
@@ -2860,19 +2860,19 @@
         <v>92733</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>74397</v>
+        <v>77256</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>111321</v>
+        <v>113317</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04333661765596094</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03476765965418548</v>
+        <v>0.03610377803012736</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05202310251559674</v>
+        <v>0.05295587311666234</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>515</v>
@@ -2881,19 +2881,19 @@
         <v>516705</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>476757</v>
+        <v>477406</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>555714</v>
+        <v>556100</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2446666313625367</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2257509787739932</v>
+        <v>0.2260579667808265</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2631378249313325</v>
+        <v>0.2633207312883296</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>608</v>
@@ -2902,19 +2902,19 @@
         <v>609438</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>565663</v>
+        <v>566512</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>653983</v>
+        <v>655289</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1433397271070765</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1330440048059235</v>
+        <v>0.1332435577559684</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1538168026505681</v>
+        <v>0.1541239214011492</v>
       </c>
     </row>
     <row r="36">
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9129</v>
+        <v>9172</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0008533800239783727</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.004266300235563662</v>
+        <v>0.004286224018244885</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5309</v>
+        <v>5287</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0005018917631511793</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.002513871846657152</v>
+        <v>0.002503478400842533</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>11251</v>
+        <v>10556</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.000678791454836801</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.002646330804077804</v>
+        <v>0.002482705246453084</v>
       </c>
     </row>
     <row r="37">
@@ -3002,19 +3002,19 @@
         <v>81486</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>63295</v>
+        <v>64281</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>101738</v>
+        <v>101361</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03808078650494138</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02957956430941163</v>
+        <v>0.03004006871325818</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04754487283825175</v>
+        <v>0.04736885862701746</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>63</v>
@@ -3023,19 +3023,19 @@
         <v>63482</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>50050</v>
+        <v>49016</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>81330</v>
+        <v>81976</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0300595921749127</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02369927745280994</v>
+        <v>0.02320952269498096</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03851104719901332</v>
+        <v>0.03881655041758692</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>141</v>
@@ -3044,19 +3044,19 @@
         <v>144968</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>121966</v>
+        <v>123618</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>171514</v>
+        <v>169585</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03409656001159998</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02868639630280831</v>
+        <v>0.02907486023470003</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04033997204435781</v>
+        <v>0.03988626912106294</v>
       </c>
     </row>
     <row r="38">
@@ -3073,19 +3073,19 @@
         <v>708289</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>664660</v>
+        <v>666688</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>749574</v>
+        <v>752425</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.33100263078492</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3106136728106058</v>
+        <v>0.3115612154248435</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3502959932735584</v>
+        <v>0.3516285700895069</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1437</v>
@@ -3094,19 +3094,19 @@
         <v>1493998</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1452216</v>
+        <v>1454450</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1534262</v>
+        <v>1535753</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7074278430805198</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6876438433065776</v>
+        <v>0.6887014987164419</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7264935679783449</v>
+        <v>0.7271994659264939</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2111</v>
@@ -3115,19 +3115,19 @@
         <v>2202287</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2142040</v>
+        <v>2136549</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2270873</v>
+        <v>2264724</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5179776923384313</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5038076446448293</v>
+        <v>0.5025161060265164</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5341092101483672</v>
+        <v>0.532662879505728</v>
       </c>
     </row>
     <row r="39">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6274</v>
+        <v>6350</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00242165545784119</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.007321404181664554</v>
+        <v>0.007409535309813516</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7196</v>
+        <v>8266</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001340227056449697</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004647317745595582</v>
+        <v>0.005338220537130473</v>
       </c>
     </row>
     <row r="5">
@@ -3521,19 +3521,19 @@
         <v>7319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3123</v>
+        <v>3202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15287</v>
+        <v>14402</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01058460981510737</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004516725582218889</v>
+        <v>0.004630679095477334</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02210683550912689</v>
+        <v>0.02082799824115067</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -3542,19 +3542,19 @@
         <v>28223</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17872</v>
+        <v>18974</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40150</v>
+        <v>41065</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03293364699589697</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02085448317891746</v>
+        <v>0.02214081019876354</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04685176134966617</v>
+        <v>0.04791853394466016</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -3563,19 +3563,19 @@
         <v>35542</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24654</v>
+        <v>25056</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49232</v>
+        <v>51435</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02295333230133428</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01592157352639034</v>
+        <v>0.016181420134569</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03179433715901062</v>
+        <v>0.03321672188878008</v>
       </c>
     </row>
     <row r="6">
@@ -3595,16 +3595,16 @@
         <v>973</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9572</v>
+        <v>9686</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005595979901575434</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001407765723171514</v>
+        <v>0.001407024676455166</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0138427508653465</v>
+        <v>0.01400735797286041</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9690</v>
+        <v>11266</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00335801182149188</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01130698447924756</v>
+        <v>0.01314638510871437</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -3634,19 +3634,19 @@
         <v>6747</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2800</v>
+        <v>2920</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13558</v>
+        <v>15372</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004357411730084765</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001808010502318136</v>
+        <v>0.001886053303743892</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008755804653691995</v>
+        <v>0.009927049812490932</v>
       </c>
     </row>
     <row r="7">
@@ -3663,19 +3663,19 @@
         <v>390908</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>365226</v>
+        <v>363692</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>418621</v>
+        <v>415309</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5653158481308451</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5281752625881028</v>
+        <v>0.5259564617028656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6053939996853822</v>
+        <v>0.6006029164288669</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5437</v>
+        <v>5452</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001276063759213057</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.006345049345828972</v>
+        <v>0.006361765876747576</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>364</v>
@@ -3705,19 +3705,19 @@
         <v>392002</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>355453</v>
+        <v>358936</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>431461</v>
+        <v>428696</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2531569167348794</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2295532457584528</v>
+        <v>0.2318030710164445</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2786395353076919</v>
+        <v>0.2768542406790612</v>
       </c>
     </row>
     <row r="8">
@@ -3734,19 +3734,19 @@
         <v>87025</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>69838</v>
+        <v>70607</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>106394</v>
+        <v>106079</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1258528394998366</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1009975313937669</v>
+        <v>0.1021097774038987</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1538633174913493</v>
+        <v>0.1534078356041206</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>399</v>
@@ -3755,19 +3755,19 @@
         <v>421410</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>390127</v>
+        <v>390886</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>452724</v>
+        <v>450932</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4917457528906876</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4552420986265585</v>
+        <v>0.4561274447661547</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.528286956948556</v>
+        <v>0.5261951870008104</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>479</v>
@@ -3776,19 +3776,19 @@
         <v>508436</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>473667</v>
+        <v>473081</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>545717</v>
+        <v>543488</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3283505072427029</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3058966394184011</v>
+        <v>0.3055183478873373</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3524268483031329</v>
+        <v>0.3509878131382247</v>
       </c>
     </row>
     <row r="9">
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6962</v>
+        <v>7818</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002994237306127587</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0100676996692158</v>
+        <v>0.01130659746538936</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7566</v>
+        <v>7041</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002482300358721881</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.008829383452339572</v>
+        <v>0.008215897702029384</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -3847,19 +3847,19 @@
         <v>4198</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10394</v>
+        <v>9710</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002710913868894681</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0006749296291424247</v>
+        <v>0.0006731546649342137</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.006712577546972801</v>
+        <v>0.006270624788104901</v>
       </c>
     </row>
     <row r="10">
@@ -3876,19 +3876,19 @@
         <v>73672</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56167</v>
+        <v>55425</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89991</v>
+        <v>89329</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1065415697111496</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08122655719233475</v>
+        <v>0.08015373535025341</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1301412325527023</v>
+        <v>0.1291839930670177</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -3897,19 +3897,19 @@
         <v>112210</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>92608</v>
+        <v>93490</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>133639</v>
+        <v>133643</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.130938260995774</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1080645341707104</v>
+        <v>0.1090934757993775</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1559439789576114</v>
+        <v>0.1559491999829851</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -3918,19 +3918,19 @@
         <v>185882</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>159420</v>
+        <v>159526</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>214592</v>
+        <v>212109</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1200435340973849</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1029543964419819</v>
+        <v>0.1030229267543341</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.138584551919326</v>
+        <v>0.1369811871655225</v>
       </c>
     </row>
     <row r="11">
@@ -3947,19 +3947,19 @@
         <v>126621</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>105477</v>
+        <v>107916</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>148118</v>
+        <v>151697</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1831149156353583</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1525364975685684</v>
+        <v>0.1560637994555864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2142026905594235</v>
+        <v>0.2193787608182096</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>265</v>
@@ -3968,19 +3968,19 @@
         <v>286951</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>256541</v>
+        <v>258647</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>314957</v>
+        <v>318585</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3348443077203735</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2993593259851901</v>
+        <v>0.3018173045436638</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3675251899020108</v>
+        <v>0.3717583483323871</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>384</v>
@@ -3989,19 +3989,19 @@
         <v>413572</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>378122</v>
+        <v>381074</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>452719</v>
+        <v>450795</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2670871569682694</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2441929984656748</v>
+        <v>0.2460998314388664</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2923685356592296</v>
+        <v>0.291125852520346</v>
       </c>
     </row>
     <row r="12">
@@ -4093,19 +4093,19 @@
         <v>4458</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13472</v>
+        <v>13524</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003674527542823544</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0007838116833194835</v>
+        <v>0.0007843058969735943</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01110482423925726</v>
+        <v>0.01114732721745876</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -4127,19 +4127,19 @@
         <v>4458</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13881</v>
+        <v>14441</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001896616873369889</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0004045622874077478</v>
+        <v>0.0004040140109210709</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.005905525384586968</v>
+        <v>0.006143715054101145</v>
       </c>
     </row>
     <row r="14">
@@ -4156,19 +4156,19 @@
         <v>7138</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2785</v>
+        <v>3009</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16158</v>
+        <v>15776</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005883512974939877</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002295546663508906</v>
+        <v>0.002479917082245231</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01331828264450289</v>
+        <v>0.01300330723759384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -4177,19 +4177,19 @@
         <v>26018</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16938</v>
+        <v>16564</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40249</v>
+        <v>38955</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02287747336373883</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01489308642845517</v>
+        <v>0.0145646362862326</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0353905376715346</v>
+        <v>0.0342533046523328</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -4198,19 +4198,19 @@
         <v>33156</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23178</v>
+        <v>23045</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48192</v>
+        <v>49102</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01410599685603821</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00986103087459337</v>
+        <v>0.009804410283121023</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02050300669401684</v>
+        <v>0.02089020085018923</v>
       </c>
     </row>
     <row r="15">
@@ -4227,19 +4227,19 @@
         <v>7626</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3736</v>
+        <v>3717</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14157</v>
+        <v>15450</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.006285443380100861</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003079834334514529</v>
+        <v>0.003063530754646897</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01166894313937608</v>
+        <v>0.01273479707666754</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -4248,19 +4248,19 @@
         <v>5826</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1987</v>
+        <v>1947</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14875</v>
+        <v>14580</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.005122919373387289</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.001747133210755045</v>
+        <v>0.001711905389160491</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.013079276630086</v>
+        <v>0.01282039385440776</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>13</v>
@@ -4269,19 +4269,19 @@
         <v>13452</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7809</v>
+        <v>6750</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>23129</v>
+        <v>22414</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.005722959139353036</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.00332237151199071</v>
+        <v>0.002871890403675609</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.009840085812262938</v>
+        <v>0.00953603442081139</v>
       </c>
     </row>
     <row r="16">
@@ -4298,19 +4298,19 @@
         <v>503738</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>471607</v>
+        <v>466534</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>538887</v>
+        <v>538676</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4152121218556277</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3887275857602692</v>
+        <v>0.3845460988218085</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4441845122117985</v>
+        <v>0.4440106474870832</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11142</v>
+        <v>9678</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002590120492277077</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.00979716180863938</v>
+        <v>0.008510180870436704</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>478</v>
@@ -4340,19 +4340,19 @@
         <v>506684</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>467653</v>
+        <v>469015</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>547389</v>
+        <v>553486</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2155660312696493</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.198960718172258</v>
+        <v>0.1995400119440426</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2328837909080727</v>
+        <v>0.2354780394453606</v>
       </c>
     </row>
     <row r="17">
@@ -4369,19 +4369,19 @@
         <v>25946</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16339</v>
+        <v>16750</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39340</v>
+        <v>38812</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02138644747375617</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01346734889246993</v>
+        <v>0.01380603561444727</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03242632517353708</v>
+        <v>0.03199123853615973</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>87</v>
@@ -4390,19 +4390,19 @@
         <v>98242</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>79600</v>
+        <v>79766</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>119938</v>
+        <v>118710</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08638372362846304</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06999213388686103</v>
+        <v>0.07013816224819745</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1054606903571108</v>
+        <v>0.104381330585435</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>110</v>
@@ -4411,19 +4411,19 @@
         <v>124188</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>103339</v>
+        <v>103596</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>147611</v>
+        <v>149584</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05283521181532973</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04396519509164451</v>
+        <v>0.04407449801127033</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06280031748316672</v>
+        <v>0.06363968417232586</v>
       </c>
     </row>
     <row r="18">
@@ -4440,19 +4440,19 @@
         <v>4749</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1876</v>
+        <v>1893</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10433</v>
+        <v>11573</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.00391430819579457</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001546276488637706</v>
+        <v>0.00156021873662413</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.008599806431642097</v>
+        <v>0.009539562646194683</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5899</v>
+        <v>5946</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001040814232944949</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.005187377367258724</v>
+        <v>0.005228450134024318</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -4482,19 +4482,19 @@
         <v>5933</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2130</v>
+        <v>2824</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12166</v>
+        <v>12716</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002523975556939088</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0009060656507469488</v>
+        <v>0.001201512582011601</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.005175929842782546</v>
+        <v>0.005409981339128936</v>
       </c>
     </row>
     <row r="19">
@@ -4511,19 +4511,19 @@
         <v>179118</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>153359</v>
+        <v>155168</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>204788</v>
+        <v>205401</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1476405922593589</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1264078105570884</v>
+        <v>0.1278989546272704</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1687986977412476</v>
+        <v>0.1693046916710803</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>172</v>
@@ -4532,19 +4532,19 @@
         <v>187458</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>162988</v>
+        <v>165029</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>215101</v>
+        <v>213566</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.16483060006869</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1433143329895815</v>
+        <v>0.1451088561394899</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1891372969409581</v>
+        <v>0.1877875416744538</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>340</v>
@@ -4553,19 +4553,19 @@
         <v>366576</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>333026</v>
+        <v>332517</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>403410</v>
+        <v>404910</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1559579331789801</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1416843012475029</v>
+        <v>0.1414679024097911</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1716287000801243</v>
+        <v>0.1722670571852583</v>
       </c>
     </row>
     <row r="20">
@@ -4582,19 +4582,19 @@
         <v>480433</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>443821</v>
+        <v>445153</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>511902</v>
+        <v>516891</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3960030463175984</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.365824734377855</v>
+        <v>0.3669231006826237</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.421941599033182</v>
+        <v>0.4260534374155738</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>759</v>
@@ -4603,19 +4603,19 @@
         <v>815601</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>779315</v>
+        <v>783646</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>840738</v>
+        <v>844401</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7171543488404989</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6852483556558344</v>
+        <v>0.6890561337239992</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7392568084895</v>
+        <v>0.7424776616815344</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1206</v>
@@ -4624,19 +4624,19 @@
         <v>1296034</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1245897</v>
+        <v>1243101</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1345874</v>
+        <v>1345451</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5513912753103406</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5300608163931998</v>
+        <v>0.5288712147641537</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5725955043655556</v>
+        <v>0.5724156215038048</v>
       </c>
     </row>
     <row r="21">
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10525</v>
+        <v>10327</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006119869102519987</v>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03451528613888288</v>
+        <v>0.03386387735870958</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9405</v>
+        <v>9235</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006245729010478297</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03163222627287193</v>
+        <v>0.03106145139782586</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13566</v>
+        <v>12895</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00618200142981548</v>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02252429969791478</v>
+        <v>0.02141079134321403</v>
       </c>
     </row>
     <row r="23">
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7336</v>
+        <v>7578</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006942437986250705</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02405671014964506</v>
+        <v>0.02485023451348455</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -4820,19 +4820,19 @@
         <v>3651</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10888</v>
+        <v>10962</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01228149902747531</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003170767645546802</v>
+        <v>0.00313968087083878</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03662266617254711</v>
+        <v>0.03686977463889324</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -4841,19 +4841,19 @@
         <v>5769</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2059</v>
+        <v>1904</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13117</v>
+        <v>12948</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009578132652211045</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003419307278161705</v>
+        <v>0.003161340091452797</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02177918837694378</v>
+        <v>0.02149937321107064</v>
       </c>
     </row>
     <row r="24">
@@ -4870,19 +4870,19 @@
         <v>10422</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4243</v>
+        <v>4793</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20584</v>
+        <v>21164</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03417714057308349</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01391318884050219</v>
+        <v>0.01571821149860939</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06749912028928798</v>
+        <v>0.06940061657574871</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5935</v>
+        <v>5150</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.00330231639954842</v>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01996057618324727</v>
+        <v>0.01732310319715583</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -4912,19 +4912,19 @@
         <v>11404</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5151</v>
+        <v>5356</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>22031</v>
+        <v>21981</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01893539511291458</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.00855218124041301</v>
+        <v>0.008893067841113701</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03658078213552832</v>
+        <v>0.03649712481810386</v>
       </c>
     </row>
     <row r="25">
@@ -4941,19 +4941,19 @@
         <v>67774</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53759</v>
+        <v>53709</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>85442</v>
+        <v>85838</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.22224828383704</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1762882704076751</v>
+        <v>0.1761237431596974</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2801846765835393</v>
+        <v>0.2814844303889752</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -4975,19 +4975,19 @@
         <v>67774</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>53594</v>
+        <v>52193</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>85392</v>
+        <v>84429</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1125326219060111</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08898721483820458</v>
+        <v>0.08666159112879215</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1417851233124073</v>
+        <v>0.1401861378728779</v>
       </c>
     </row>
     <row r="26">
@@ -5004,19 +5004,19 @@
         <v>11457</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4757</v>
+        <v>4954</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23059</v>
+        <v>23847</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03756890477244744</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01559892015142823</v>
+        <v>0.01624539283651287</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07561521179194997</v>
+        <v>0.07819919967912665</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -5025,19 +5025,19 @@
         <v>19963</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12204</v>
+        <v>12003</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>30489</v>
+        <v>31197</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06714330297165162</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04104853366051657</v>
+        <v>0.04037016203342642</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1025479497746216</v>
+        <v>0.1049298011117471</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -5046,19 +5046,19 @@
         <v>31419</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20008</v>
+        <v>21478</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>46204</v>
+        <v>49283</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05216867858674918</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03322092344923517</v>
+        <v>0.03566251988692547</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07671672618875332</v>
+        <v>0.08182993340433062</v>
       </c>
     </row>
     <row r="27">
@@ -5122,19 +5122,19 @@
         <v>27969</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18032</v>
+        <v>17112</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41231</v>
+        <v>40072</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09171575883386676</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05913011160222741</v>
+        <v>0.05611563155536633</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1352064343108043</v>
+        <v>0.1314073312873572</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -5143,19 +5143,19 @@
         <v>17527</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10488</v>
+        <v>10591</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>27648</v>
+        <v>27909</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0589522115098346</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03527601727693665</v>
+        <v>0.03562321840768502</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09299107819142305</v>
+        <v>0.09387026032425584</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>39</v>
@@ -5164,19 +5164,19 @@
         <v>45496</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>33562</v>
+        <v>32250</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>61984</v>
+        <v>60459</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07554162142410156</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05572588235095811</v>
+        <v>0.05354880636069724</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1029187965223683</v>
+        <v>0.1003863266854887</v>
       </c>
     </row>
     <row r="29">
@@ -5193,19 +5193,19 @@
         <v>183343</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>162416</v>
+        <v>163975</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>201531</v>
+        <v>201822</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6012276048947915</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.532602042296128</v>
+        <v>0.5377142592070132</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6608689164164639</v>
+        <v>0.6618257365059299</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>226</v>
@@ -5214,19 +5214,19 @@
         <v>253334</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>239126</v>
+        <v>238349</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>265144</v>
+        <v>265357</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8520749410810118</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8042880792031766</v>
+        <v>0.8016749799983928</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8917975959899569</v>
+        <v>0.892513312664773</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>391</v>
@@ -5235,19 +5235,19 @@
         <v>436677</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>410422</v>
+        <v>412977</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>461213</v>
+        <v>460194</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7250615488881971</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6814679846605339</v>
+        <v>0.6857093551363745</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7658009040936902</v>
+        <v>0.7641087194835168</v>
       </c>
     </row>
     <row r="30">
@@ -5339,19 +5339,19 @@
         <v>6324</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1862</v>
+        <v>1872</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16281</v>
+        <v>16151</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.002862094554755067</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0008428190389029449</v>
+        <v>0.0008470766085530556</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.007368180865957591</v>
+        <v>0.007309191390812954</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -5360,19 +5360,19 @@
         <v>3932</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11351</v>
+        <v>12027</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001715962505506526</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0004350668499248572</v>
+        <v>0.0004346374386918178</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.004953380202058913</v>
+        <v>0.005248474303804134</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -5381,19 +5381,19 @@
         <v>10256</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4262</v>
+        <v>4159</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>21214</v>
+        <v>22198</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00227859962671049</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0009469606213414889</v>
+        <v>0.0009239230727006435</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.004712943754245034</v>
+        <v>0.004931566870112443</v>
       </c>
     </row>
     <row r="32">
@@ -5410,19 +5410,19 @@
         <v>16574</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9551</v>
+        <v>9393</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26447</v>
+        <v>27724</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007500817422943555</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00432248103703262</v>
+        <v>0.004250842682285116</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0119690718680499</v>
+        <v>0.01254700799016974</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>49</v>
@@ -5431,19 +5431,19 @@
         <v>57892</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>44789</v>
+        <v>43313</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>78890</v>
+        <v>76514</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0252633989628746</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01954541603934339</v>
+        <v>0.01890097469422991</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03442643319476714</v>
+        <v>0.03338969315125133</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>64</v>
@@ -5452,19 +5452,19 @@
         <v>74467</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>57384</v>
+        <v>57663</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>95147</v>
+        <v>94276</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0165437337643227</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01274851474953504</v>
+        <v>0.0128105547223579</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02113815895952109</v>
+        <v>0.02094458304067659</v>
       </c>
     </row>
     <row r="33">
@@ -5481,19 +5481,19 @@
         <v>21917</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>13393</v>
+        <v>12699</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>33585</v>
+        <v>33390</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.009918954179771365</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.006061311482914127</v>
+        <v>0.005747073398080862</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0151995136924537</v>
+        <v>0.01511092898837788</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>8</v>
@@ -5502,19 +5502,19 @@
         <v>9686</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3910</v>
+        <v>3867</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>20299</v>
+        <v>19168</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.004226690017748246</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.001706138692982574</v>
+        <v>0.001687467346077703</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.008858135321663916</v>
+        <v>0.008364806932910781</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>28</v>
@@ -5523,19 +5523,19 @@
         <v>31603</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>20745</v>
+        <v>20882</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>44115</v>
+        <v>45931</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.007021026955933519</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.004608867652334363</v>
+        <v>0.004639268840329963</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.009800722236953842</v>
+        <v>0.01020412981655413</v>
       </c>
     </row>
     <row r="34">
@@ -5552,19 +5552,19 @@
         <v>962421</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>914097</v>
+        <v>915731</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1007081</v>
+        <v>1017027</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4355551705503234</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4136856110783449</v>
+        <v>0.4144251213864363</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4557668800274977</v>
+        <v>0.4602681048004014</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -5573,19 +5573,19 @@
         <v>4039</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11093</v>
+        <v>11847</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.001762654937366909</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0004516302869710632</v>
+        <v>0.0004522162121675466</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.004840946509864512</v>
+        <v>0.005169858358593963</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>905</v>
@@ -5594,19 +5594,19 @@
         <v>966460</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>914374</v>
+        <v>912470</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1025462</v>
+        <v>1027539</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2147117408165393</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2031401405022741</v>
+        <v>0.202717167020298</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2278199427453635</v>
+        <v>0.2282812817876475</v>
       </c>
     </row>
     <row r="35">
@@ -5623,19 +5623,19 @@
         <v>124428</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>103767</v>
+        <v>104563</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>150736</v>
+        <v>148516</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05631153861474059</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04696100079220054</v>
+        <v>0.04732147521186659</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06821721583980785</v>
+        <v>0.06721251538829666</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>502</v>
@@ -5644,19 +5644,19 @@
         <v>539615</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>498558</v>
+        <v>502690</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>582307</v>
+        <v>586524</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2354796640765356</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2175630535474209</v>
+        <v>0.2193663365220342</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2541099450960167</v>
+        <v>0.2559500851269124</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>612</v>
@@ -5665,19 +5665,19 @@
         <v>664043</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>621428</v>
+        <v>613245</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>712772</v>
+        <v>710662</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.147525890872629</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1380584208879179</v>
+        <v>0.1362404482738827</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1583516758048022</v>
+        <v>0.1578829050739919</v>
       </c>
     </row>
     <row r="36">
@@ -5694,19 +5694,19 @@
         <v>6819</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2881</v>
+        <v>2940</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13784</v>
+        <v>13483</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003086175476246404</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.001303912792688203</v>
+        <v>0.001330602964200939</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.006237948351135081</v>
+        <v>0.006102052799701089</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -5715,19 +5715,19 @@
         <v>3311</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9786</v>
+        <v>9693</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.001444844574972835</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0004320532820039897</v>
+        <v>0.0004305674868893741</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.004270556303095024</v>
+        <v>0.004229775924256586</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>10</v>
@@ -5736,19 +5736,19 @@
         <v>10130</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5031</v>
+        <v>5070</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>18824</v>
+        <v>19254</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.002250575200725026</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.001117683262305514</v>
+        <v>0.0011264580205673</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.004181978499349192</v>
+        <v>0.004277426761349665</v>
       </c>
     </row>
     <row r="37">
@@ -5765,19 +5765,19 @@
         <v>280759</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>249121</v>
+        <v>250616</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>314343</v>
+        <v>316424</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1270609717809244</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.112742663665246</v>
+        <v>0.1134194134616854</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1422595975039436</v>
+        <v>0.1432014046534248</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>292</v>
@@ -5786,19 +5786,19 @@
         <v>317195</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>286454</v>
+        <v>285355</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>351427</v>
+        <v>350450</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1384189460487218</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1250043863605133</v>
+        <v>0.1245247262942918</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.153357437513142</v>
+        <v>0.1529311339636082</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>552</v>
@@ -5807,19 +5807,19 @@
         <v>597954</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>554578</v>
+        <v>549702</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>645707</v>
+        <v>644223</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1328433075793743</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1232067669179465</v>
+        <v>0.1221234893732548</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.143452404418738</v>
+        <v>0.1431226226659797</v>
       </c>
     </row>
     <row r="38">
@@ -5836,19 +5836,19 @@
         <v>790398</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>745183</v>
+        <v>743546</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>840952</v>
+        <v>839135</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3577042774202952</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3372416331219444</v>
+        <v>0.3365007463467089</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3805831073084872</v>
+        <v>0.3797606405187729</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1250</v>
@@ -5857,19 +5857,19 @@
         <v>1355885</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1305279</v>
+        <v>1305421</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1401942</v>
+        <v>1399331</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5916878388762734</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5696042359532474</v>
+        <v>0.5696658835699411</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.611786218159615</v>
+        <v>0.610646801437412</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1981</v>
@@ -5878,19 +5878,19 @@
         <v>2146283</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2073719</v>
+        <v>2068900</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2210993</v>
+        <v>2215217</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4768251251837657</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4607039483295137</v>
+        <v>0.4596334720095309</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4912013079909762</v>
+        <v>0.492139636993174</v>
       </c>
     </row>
     <row r="39">
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6428</v>
+        <v>7139</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003836617262964036</v>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.012742274035822</v>
+        <v>0.01415056620696835</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -6242,19 +6242,19 @@
         <v>3900</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>981</v>
+        <v>1011</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9508</v>
+        <v>9656</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006500865472179635</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001634991613870236</v>
+        <v>0.001685525438998064</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01584975374372756</v>
+        <v>0.01609679037650091</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -6263,19 +6263,19 @@
         <v>5835</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2168</v>
+        <v>2105</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11995</v>
+        <v>13252</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005283798402731308</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001963422167441426</v>
+        <v>0.001906295787894016</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01086130094301762</v>
+        <v>0.01199989167634073</v>
       </c>
     </row>
     <row r="5">
@@ -6292,19 +6292,19 @@
         <v>5898</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12453</v>
+        <v>12456</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01169190919574857</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004232677539166817</v>
+        <v>0.004221440605070279</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02468509416664024</v>
+        <v>0.02469056907129783</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -6313,19 +6313,19 @@
         <v>6402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2174</v>
+        <v>3032</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13845</v>
+        <v>13861</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01067141927344472</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003624264476389898</v>
+        <v>0.005053943295778651</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02308007870302423</v>
+        <v>0.02310612470975962</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -6334,19 +6334,19 @@
         <v>12300</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6301</v>
+        <v>6747</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20629</v>
+        <v>20726</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0111375938118544</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005705550492964123</v>
+        <v>0.006108932200158366</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01867953739500041</v>
+        <v>0.01876686824770529</v>
       </c>
     </row>
     <row r="6">
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5089</v>
+        <v>5809</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002014863849694592</v>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01008647952927189</v>
+        <v>0.01151511948246381</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5100</v>
+        <v>4585</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0009204189130738495</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.004618029158097207</v>
+        <v>0.004151863416143203</v>
       </c>
     </row>
     <row r="7">
@@ -6426,19 +6426,19 @@
         <v>301523</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>279973</v>
+        <v>278635</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>323455</v>
+        <v>322525</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5976746283606241</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5549583897485033</v>
+        <v>0.5523075115027559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6411479741912282</v>
+        <v>0.6393047369512556</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7612</v>
+        <v>6076</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002008773507473067</v>
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01268977220139569</v>
+        <v>0.01012808010933877</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>311</v>
@@ -6468,19 +6468,19 @@
         <v>302727</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>272504</v>
+        <v>274419</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>330678</v>
+        <v>330694</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2741175409372162</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2467507915139469</v>
+        <v>0.2484843905917541</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2994263371246041</v>
+        <v>0.2994409536554508</v>
       </c>
     </row>
     <row r="8">
@@ -6497,19 +6497,19 @@
         <v>50016</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37494</v>
+        <v>38716</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>66486</v>
+        <v>66333</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09914040350707309</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07431933894088771</v>
+        <v>0.07674263836718487</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1317880765082505</v>
+        <v>0.13148461229653</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>313</v>
@@ -6518,19 +6518,19 @@
         <v>356061</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>333418</v>
+        <v>332926</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>379807</v>
+        <v>379801</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5935560485515</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5558100991671079</v>
+        <v>0.5549891203979878</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6331397596953177</v>
+        <v>0.633130030585992</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>366</v>
@@ -6539,19 +6539,19 @@
         <v>406077</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>375149</v>
+        <v>372679</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>439608</v>
+        <v>437955</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3676998396133745</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3396947807261972</v>
+        <v>0.3374581281260151</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3980623142500134</v>
+        <v>0.3965648800851292</v>
       </c>
     </row>
     <row r="9">
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4938</v>
+        <v>4666</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001760162535303098</v>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.009788702845227619</v>
+        <v>0.009249309497023002</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6904</v>
+        <v>7025</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003348386502209308</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01150842834650048</v>
+        <v>0.01171100492648882</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -6610,19 +6610,19 @@
         <v>2897</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7907</v>
+        <v>8862</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002622862850792745</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0008015550441507522</v>
+        <v>0.0008022076123972009</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007159582536076912</v>
+        <v>0.0080248967597369</v>
       </c>
     </row>
     <row r="10">
@@ -6639,19 +6639,19 @@
         <v>73729</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57429</v>
+        <v>58209</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90303</v>
+        <v>89652</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.146144123855321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1138341381779976</v>
+        <v>0.1153813391280576</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1789972398293048</v>
+        <v>0.1777078833453351</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -6660,19 +6660,19 @@
         <v>91432</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75036</v>
+        <v>75728</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>108984</v>
+        <v>108593</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1524177674796416</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1250855579283938</v>
+        <v>0.1262385842911594</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1816768139254104</v>
+        <v>0.1810252476292112</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>162</v>
@@ -6681,19 +6681,19 @@
         <v>165161</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>144201</v>
+        <v>144751</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>191279</v>
+        <v>190164</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1495518764435872</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1305729747489577</v>
+        <v>0.131070634302565</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1732017799531268</v>
+        <v>0.17219232093956</v>
       </c>
     </row>
     <row r="11">
@@ -6710,19 +6710,19 @@
         <v>69487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>54893</v>
+        <v>55310</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>87015</v>
+        <v>86077</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1377372914332716</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1088077159894326</v>
+        <v>0.1096355041230407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1724803483077667</v>
+        <v>0.1706203777529902</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>137</v>
@@ -6731,19 +6731,19 @@
         <v>138870</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>119270</v>
+        <v>119060</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161565</v>
+        <v>159354</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2314967392135517</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1988244443876107</v>
+        <v>0.1984730967192914</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2693290368776054</v>
+        <v>0.2656445149757393</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>201</v>
@@ -6752,19 +6752,19 @@
         <v>208357</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>182525</v>
+        <v>181294</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>237166</v>
+        <v>233330</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1886660690273698</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1652751388053435</v>
+        <v>0.1641600634323387</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2147521517665414</v>
+        <v>0.2112783082678367</v>
       </c>
     </row>
     <row r="12">
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6463</v>
+        <v>6687</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001482644911838794</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005001932759374677</v>
+        <v>0.005175050143614635</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -6877,19 +6877,19 @@
         <v>4182</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10545</v>
+        <v>10951</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003471675550324999</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0009216372656040246</v>
+        <v>0.0009243661680147451</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.00875336645528176</v>
+        <v>0.00909028503422603</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -6898,19 +6898,19 @@
         <v>6098</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2112</v>
+        <v>2040</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12766</v>
+        <v>12617</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002442349300989105</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0008459894845834353</v>
+        <v>0.0008170027337168164</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.005112913216795953</v>
+        <v>0.005053203759120719</v>
       </c>
     </row>
     <row r="14">
@@ -6927,19 +6927,19 @@
         <v>11051</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4876</v>
+        <v>5190</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21955</v>
+        <v>20701</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008552447602344292</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003773888751331252</v>
+        <v>0.004016599048076756</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01699139061532822</v>
+        <v>0.01602077383108769</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -6948,19 +6948,19 @@
         <v>15253</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8625</v>
+        <v>9472</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25008</v>
+        <v>25676</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01266095981647075</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007159287066410919</v>
+        <v>0.007862606018394119</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02075778907661943</v>
+        <v>0.02131273512673142</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -6969,19 +6969,19 @@
         <v>26304</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16948</v>
+        <v>17118</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>40418</v>
+        <v>40622</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01053479876802352</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006787834486785454</v>
+        <v>0.006855944407905666</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01618757871943982</v>
+        <v>0.01626918731123885</v>
       </c>
     </row>
     <row r="15">
@@ -6998,19 +6998,19 @@
         <v>9870</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4854</v>
+        <v>5067</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17342</v>
+        <v>18126</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.007638151522968808</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003756537171903968</v>
+        <v>0.003921148911516442</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01342095962298223</v>
+        <v>0.01402766841475142</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -7019,19 +7019,19 @@
         <v>5327</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1913</v>
+        <v>1887</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12215</v>
+        <v>12866</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.004421982147555611</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.001588177482748499</v>
+        <v>0.001566152994140587</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01013944578485639</v>
+        <v>0.01067942056853552</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -7040,19 +7040,19 @@
         <v>15197</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>9061</v>
+        <v>8923</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>24868</v>
+        <v>24335</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.006086354478663869</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003628752480691227</v>
+        <v>0.003573679995514191</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.009959603817257391</v>
+        <v>0.009746092180810484</v>
       </c>
     </row>
     <row r="16">
@@ -7069,19 +7069,19 @@
         <v>584998</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>549966</v>
+        <v>548838</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>621479</v>
+        <v>620784</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4527382329060371</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4256266817476685</v>
+        <v>0.4247537416435512</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4809721157762415</v>
+        <v>0.4804339613411615</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7355</v>
+        <v>7373</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001734056042593871</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.006105386647806734</v>
+        <v>0.00611965181341728</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>554</v>
@@ -7111,19 +7111,19 @@
         <v>587087</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>543461</v>
+        <v>540343</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>629962</v>
+        <v>629455</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2351293737532265</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2176572362126034</v>
+        <v>0.2164082332937704</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.252300789723725</v>
+        <v>0.252097888232871</v>
       </c>
     </row>
     <row r="17">
@@ -7140,19 +7140,19 @@
         <v>29067</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20700</v>
+        <v>19947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41650</v>
+        <v>41041</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02249567786651566</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01601987840812183</v>
+        <v>0.01543722014336506</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03223378796269352</v>
+        <v>0.03176251385229065</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>162</v>
@@ -7161,19 +7161,19 @@
         <v>187117</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>161341</v>
+        <v>161522</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216570</v>
+        <v>217652</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.155318243636233</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1339227253816027</v>
+        <v>0.1340723016800385</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1797653720664853</v>
+        <v>0.1806638501793565</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>192</v>
@@ -7182,19 +7182,19 @@
         <v>216185</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>188064</v>
+        <v>191308</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>245460</v>
+        <v>249152</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08658237260160415</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07532003470997878</v>
+        <v>0.0766190222603319</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09830722342081163</v>
+        <v>0.09978597131353095</v>
       </c>
     </row>
     <row r="18">
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7425</v>
+        <v>6189</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001587046804945485</v>
@@ -7236,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.006162955647741444</v>
+        <v>0.005136938268266526</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -7248,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5939</v>
+        <v>6220</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0007657477743290792</v>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.002378538679527167</v>
+        <v>0.002490941175817398</v>
       </c>
     </row>
     <row r="19">
@@ -7274,19 +7274,19 @@
         <v>218026</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>190400</v>
+        <v>191310</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>246300</v>
+        <v>243657</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1687333376060971</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1473533984460639</v>
+        <v>0.1480580079426421</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1906150307642024</v>
+        <v>0.1885701111163476</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>180</v>
@@ -7295,19 +7295,19 @@
         <v>186625</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>161894</v>
+        <v>162244</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>214451</v>
+        <v>213888</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1549093418252822</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1343814911552673</v>
+        <v>0.1346715721814621</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1780068803593197</v>
+        <v>0.1775394498199145</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>383</v>
@@ -7316,19 +7316,19 @@
         <v>404650</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>371775</v>
+        <v>367631</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>445234</v>
+        <v>442994</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1620632797549317</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1488966196798569</v>
+        <v>0.1472370900119048</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1783170030791621</v>
+        <v>0.1774200150846527</v>
       </c>
     </row>
     <row r="20">
@@ -7345,19 +7345,19 @@
         <v>437205</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>400879</v>
+        <v>401023</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>470614</v>
+        <v>472337</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3383595075841982</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3102463604503961</v>
+        <v>0.3103579918020789</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3642149506936844</v>
+        <v>0.3655489409317671</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>783</v>
@@ -7366,19 +7366,19 @@
         <v>802229</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>766436</v>
+        <v>766696</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>835311</v>
+        <v>833697</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.665896694176594</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6361860001175436</v>
+        <v>0.6364020630427802</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6933565579312978</v>
+        <v>0.6920170291586325</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1187</v>
@@ -7387,19 +7387,19 @@
         <v>1239434</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1188152</v>
+        <v>1189758</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1289264</v>
+        <v>1291285</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4963957235682321</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4758572051413705</v>
+        <v>0.4765003085550267</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5163527100301629</v>
+        <v>0.5171620592552981</v>
       </c>
     </row>
     <row r="21">
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8643</v>
+        <v>7909</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004360830994057572</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02495233158818827</v>
+        <v>0.02283327083703173</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5864</v>
+        <v>5796</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003538778599359767</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01790873228882265</v>
+        <v>0.01769889187779562</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8789</v>
+        <v>9170</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003961347726081205</v>
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01304317907861213</v>
+        <v>0.01360895328403504</v>
       </c>
     </row>
     <row r="23">
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5102</v>
+        <v>4558</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.002960782688325962</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01473050456348805</v>
+        <v>0.01315911002968682</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5858</v>
+        <v>5106</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.001521965464838507</v>
@@ -7608,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.008694081141506688</v>
+        <v>0.007578025330415417</v>
       </c>
     </row>
     <row r="24">
@@ -7625,19 +7625,19 @@
         <v>6207</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2734</v>
+        <v>2719</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13154</v>
+        <v>12897</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0179187848945383</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007892349650550396</v>
+        <v>0.007849738379555035</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03797581824055512</v>
+        <v>0.03723177881259849</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -7659,19 +7659,19 @@
         <v>6207</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2730</v>
+        <v>2239</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12865</v>
+        <v>13286</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.009211000823831748</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004051546345262557</v>
+        <v>0.003322056478408251</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01909224283753354</v>
+        <v>0.01971715328782499</v>
       </c>
     </row>
     <row r="25">
@@ -7688,19 +7688,19 @@
         <v>90279</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>73047</v>
+        <v>74316</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>107617</v>
+        <v>106795</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2606312013950218</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2108834072841798</v>
+        <v>0.2145473871912438</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3106842976564713</v>
+        <v>0.308313117157556</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -7722,19 +7722,19 @@
         <v>90279</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74247</v>
+        <v>70679</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>111904</v>
+        <v>109617</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.133975279289029</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1101839311074473</v>
+        <v>0.1048882990799776</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1660669217072098</v>
+        <v>0.1626733739895659</v>
       </c>
     </row>
     <row r="26">
@@ -7751,19 +7751,19 @@
         <v>13763</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7220</v>
+        <v>8104</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23048</v>
+        <v>23444</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03973209902970758</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02084459073578994</v>
+        <v>0.0233950014257311</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0665396274268879</v>
+        <v>0.06768208726447689</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -7772,19 +7772,19 @@
         <v>26252</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17394</v>
+        <v>16999</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>38938</v>
+        <v>38478</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08016759128191193</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05311724805047133</v>
+        <v>0.05191084127302745</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1189070956129143</v>
+        <v>0.1175038754495038</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>35</v>
@@ -7793,19 +7793,19 @@
         <v>40014</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>27157</v>
+        <v>28430</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>53983</v>
+        <v>56263</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05938206622319991</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04030141664564458</v>
+        <v>0.04218988331994026</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08011174883331261</v>
+        <v>0.08349448464744585</v>
       </c>
     </row>
     <row r="27">
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5879</v>
+        <v>6755</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.005505630219795269</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0169723815622148</v>
+        <v>0.01950108572814719</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6557</v>
+        <v>5876</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.002830122956925749</v>
@@ -7868,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.009730401065131436</v>
+        <v>0.008720775432830716</v>
       </c>
     </row>
     <row r="28">
@@ -7885,19 +7885,19 @@
         <v>41951</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>31263</v>
+        <v>30769</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>57077</v>
+        <v>55620</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.121109932438266</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09025412569130085</v>
+        <v>0.08882722761343376</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1647788397305573</v>
+        <v>0.1605716777249047</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>29</v>
@@ -7906,19 +7906,19 @@
         <v>30326</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>20317</v>
+        <v>21613</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>41887</v>
+        <v>42813</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09260872013136677</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06204351897430954</v>
+        <v>0.06600021899934805</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1279153609161358</v>
+        <v>0.1307424601282939</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>67</v>
@@ -7927,19 +7927,19 @@
         <v>72277</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>55945</v>
+        <v>56420</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>91117</v>
+        <v>89339</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1072595288543997</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08302340494576399</v>
+        <v>0.08372807812547681</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1352183070893717</v>
+        <v>0.1325805148639572</v>
       </c>
     </row>
     <row r="29">
@@ -7956,19 +7956,19 @@
         <v>189744</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>168928</v>
+        <v>170060</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>208103</v>
+        <v>209804</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5477807383402875</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4876877931173054</v>
+        <v>0.490955958653933</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6007847648329623</v>
+        <v>0.6056954587939258</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>259</v>
@@ -7977,19 +7977,19 @@
         <v>269726</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>254503</v>
+        <v>253276</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>283751</v>
+        <v>283284</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8236849099873615</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.777197692537568</v>
+        <v>0.7734516818179842</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8665153035407401</v>
+        <v>0.8650898188523891</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>429</v>
@@ -7998,19 +7998,19 @@
         <v>459469</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>435665</v>
+        <v>432851</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>487681</v>
+        <v>484830</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6818586886616942</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6465335759814878</v>
+        <v>0.6423565499724986</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.723725856969764</v>
+        <v>0.7194940264433809</v>
       </c>
     </row>
     <row r="30">
@@ -8102,19 +8102,19 @@
         <v>5362</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1834</v>
+        <v>1855</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12224</v>
+        <v>13307</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.002502016909614513</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0008559330077939388</v>
+        <v>0.0008655879001230936</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.005703916522989181</v>
+        <v>0.00620938387078042</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -8123,19 +8123,19 @@
         <v>9241</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4285</v>
+        <v>4278</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16685</v>
+        <v>16626</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004334271377704302</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002009785388109635</v>
+        <v>0.002006709863220008</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.007825672625387151</v>
+        <v>0.007797949787167757</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>14</v>
@@ -8144,19 +8144,19 @@
         <v>14603</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8472</v>
+        <v>8069</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>23972</v>
+        <v>23787</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003415800689314354</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.00198161565641587</v>
+        <v>0.001887363195417612</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.005607283833511927</v>
+        <v>0.005564034005064875</v>
       </c>
     </row>
     <row r="32">
@@ -8173,19 +8173,19 @@
         <v>17975</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10328</v>
+        <v>10154</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31035</v>
+        <v>31265</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.008387707518930769</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004819309769678787</v>
+        <v>0.004738058195440296</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01448188381117245</v>
+        <v>0.01458916834779011</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>21</v>
@@ -8194,19 +8194,19 @@
         <v>21655</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13487</v>
+        <v>13445</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>32691</v>
+        <v>31956</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0101566067751276</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006325841690252497</v>
+        <v>0.006306240810642048</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01533281024461108</v>
+        <v>0.01498816123285273</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>36</v>
@@ -8215,19 +8215,19 @@
         <v>39630</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>27441</v>
+        <v>27304</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>53219</v>
+        <v>55318</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.009269894724030584</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006418701932969628</v>
+        <v>0.006386707134141415</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01244859148427406</v>
+        <v>0.01293973847546141</v>
       </c>
     </row>
     <row r="33">
@@ -8244,19 +8244,19 @@
         <v>17093</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>9543</v>
+        <v>10372</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>25651</v>
+        <v>27366</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.007976069244836832</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.004453082864083166</v>
+        <v>0.004839798102436793</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01196967088912654</v>
+        <v>0.01276986533182415</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>5</v>
@@ -8265,19 +8265,19 @@
         <v>5327</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1877</v>
+        <v>1897</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>11539</v>
+        <v>12216</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.002498652382449836</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0008804038525820717</v>
+        <v>0.0008897598691511107</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0054121433569972</v>
+        <v>0.005729816181029009</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>22</v>
@@ -8286,19 +8286,19 @@
         <v>22420</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>14219</v>
+        <v>14737</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>33701</v>
+        <v>34558</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.005244366432442132</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.00332592639010107</v>
+        <v>0.003447114722983999</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.007883206775582997</v>
+        <v>0.008083629624730143</v>
       </c>
     </row>
     <row r="34">
@@ -8315,19 +8315,19 @@
         <v>976799</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>930035</v>
+        <v>930123</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1023320</v>
+        <v>1023589</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4558068763272136</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4339852319547348</v>
+        <v>0.4340260377351231</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4775151095738492</v>
+        <v>0.4776403621022138</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -8336,19 +8336,19 @@
         <v>3294</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9879</v>
+        <v>9508</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.001545019146566178</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0004710088572763731</v>
+        <v>0.0004701027051811323</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.004633303833456344</v>
+        <v>0.004459344131705204</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>949</v>
@@ -8357,19 +8357,19 @@
         <v>980093</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>926606</v>
+        <v>921211</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1034815</v>
+        <v>1034153</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.229256948870489</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2167456081618529</v>
+        <v>0.215483532298337</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2420572150570106</v>
+        <v>0.2419021820992441</v>
       </c>
     </row>
     <row r="35">
@@ -8386,19 +8386,19 @@
         <v>92846</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>76308</v>
+        <v>75680</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>110812</v>
+        <v>113512</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04332485542983298</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03560800860395978</v>
+        <v>0.0353149373823488</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05170859934252971</v>
+        <v>0.05296867161141159</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>497</v>
@@ -8407,19 +8407,19 @@
         <v>569430</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>530053</v>
+        <v>526961</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>609513</v>
+        <v>612465</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2670780764811773</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2486089371918911</v>
+        <v>0.2471588097561282</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2858776241786651</v>
+        <v>0.2872624034224276</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>593</v>
@@ -8428,19 +8428,19 @@
         <v>662276</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>614888</v>
+        <v>619211</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>713038</v>
+        <v>714607</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1549152854782709</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1438306268841672</v>
+        <v>0.1448417591272448</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1667892395554619</v>
+        <v>0.1671561045968817</v>
       </c>
     </row>
     <row r="36">
@@ -8460,16 +8460,16 @@
         <v>882</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7471</v>
+        <v>7469</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001304269032416884</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0004115324306170496</v>
+        <v>0.0004116430515033098</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.003486135386817001</v>
+        <v>0.00348518570523917</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -8478,19 +8478,19 @@
         <v>3921</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9486</v>
+        <v>9512</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.001838863248541305</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0004700193081957734</v>
+        <v>0.0004713343807828662</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.004449118432953483</v>
+        <v>0.004461273425068062</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7</v>
@@ -8499,19 +8499,19 @@
         <v>6716</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2879</v>
+        <v>2809</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>13433</v>
+        <v>13464</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001570882394219808</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0006733287249886643</v>
+        <v>0.0006571601109242758</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.003142157882727135</v>
+        <v>0.003149314013472698</v>
       </c>
     </row>
     <row r="37">
@@ -8528,19 +8528,19 @@
         <v>333705</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>298956</v>
+        <v>301236</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>370483</v>
+        <v>368684</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1557179223075689</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1395029752988664</v>
+        <v>0.1405665380994636</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1728796891208161</v>
+        <v>0.1720402919052548</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>299</v>
@@ -8549,19 +8549,19 @@
         <v>308383</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>278738</v>
+        <v>274725</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>344020</v>
+        <v>341693</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1446396548759323</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1307357138661435</v>
+        <v>0.1288533634855237</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1613544001345339</v>
+        <v>0.1602630846239437</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>612</v>
@@ -8570,19 +8570,19 @@
         <v>642088</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>598086</v>
+        <v>587124</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>696090</v>
+        <v>689579</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1501929577011186</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1399004017265379</v>
+        <v>0.1373362601455931</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1628248028612777</v>
+        <v>0.1613018224668523</v>
       </c>
     </row>
     <row r="38">
@@ -8599,19 +8599,19 @@
         <v>696436</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>652330</v>
+        <v>657440</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>746571</v>
+        <v>742419</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3249802832295856</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3043990138648546</v>
+        <v>0.3067832164543238</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3483748025829362</v>
+        <v>0.3464374282035103</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1179</v>
@@ -8620,19 +8620,19 @@
         <v>1210824</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1163167</v>
+        <v>1163492</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1259002</v>
+        <v>1254918</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5679088557125012</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5455564054791112</v>
+        <v>0.5457086964457035</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.590505265823567</v>
+        <v>0.588589884122929</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1817</v>
@@ -8641,19 +8641,19 @@
         <v>1907261</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1836465</v>
+        <v>1837060</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1969026</v>
+        <v>1974457</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4461338637101147</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4295737853945585</v>
+        <v>0.4297130248808349</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4605816017161614</v>
+        <v>0.4618521115852636</v>
       </c>
     </row>
     <row r="39">
